--- a/00 Raw/nst-est2019-01.xlsx
+++ b/00 Raw/nst-est2019-01.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Shared\ESTIMATES\V2019\Team Specific Material\Dissemination\Products\DISS\National-State-Commonwealth Totals\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelberryman/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79550A1C-6523-BE47-943B-474CE12145A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="720" yWindow="270" windowWidth="11100" windowHeight="5325"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="26980" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NST01" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,23 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'NST01'!$A$2:$M$67</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'NST01'!$A:$A,'NST01'!$2:$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>United States</t>
   </si>
@@ -738,16 +750,19 @@
   </si>
   <si>
     <t>Release Date: December 2019</t>
+  </si>
+  <si>
+    <t>Electoral Votes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,6 +809,12 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -998,7 +1019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1102,6 +1123,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1195,6 +1221,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1230,6 +1273,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1405,23 +1465,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC2" sqref="AC2"/>
+      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="1" customWidth="1"/>
-    <col min="2" max="13" width="14.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="28.6640625" style="1" customWidth="1"/>
+    <col min="2" max="13" width="14.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="2.25" customHeight="1">
       <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
@@ -1438,7 +1499,7 @@
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
     </row>
-    <row r="2" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="25.5" customHeight="1">
       <c r="A2" s="23" t="s">
         <v>7</v>
       </c>
@@ -1455,7 +1516,7 @@
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="2" customFormat="1">
       <c r="A3" s="25" t="s">
         <v>8</v>
       </c>
@@ -1476,7 +1537,7 @@
       <c r="L3" s="28"/>
       <c r="M3" s="28"/>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="3" customFormat="1">
       <c r="A4" s="26"/>
       <c r="B4" s="4" t="s">
         <v>9</v>
@@ -1514,8 +1575,11 @@
       <c r="M4" s="4">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -1556,7 +1620,7 @@
         <v>328239523</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
@@ -1597,7 +1661,7 @@
         <v>55982803</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
@@ -1638,7 +1702,7 @@
         <v>68329004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
@@ -1679,7 +1743,7 @@
         <v>125580448</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -1720,7 +1784,7 @@
         <v>78347268</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
@@ -1760,8 +1824,11 @@
       <c r="M10" s="8">
         <v>4903185</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="11" t="s">
         <v>13</v>
       </c>
@@ -1801,8 +1868,11 @@
       <c r="M11" s="8">
         <v>731545</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
@@ -1842,8 +1912,11 @@
       <c r="M12" s="8">
         <v>7278717</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
@@ -1883,8 +1956,11 @@
       <c r="M13" s="8">
         <v>3017804</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
@@ -1924,8 +2000,11 @@
       <c r="M14" s="8">
         <v>39512223</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="33">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
@@ -1965,8 +2044,11 @@
       <c r="M15" s="8">
         <v>5758736</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
@@ -2006,8 +2088,11 @@
       <c r="M16" s="8">
         <v>3565287</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
@@ -2047,8 +2132,11 @@
       <c r="M17" s="8">
         <v>973764</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
@@ -2088,8 +2176,11 @@
       <c r="M18" s="8">
         <v>705749</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
@@ -2129,8 +2220,11 @@
       <c r="M19" s="8">
         <v>21477737</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="11" t="s">
         <v>22</v>
       </c>
@@ -2170,8 +2264,11 @@
       <c r="M20" s="8">
         <v>10617423</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="11" t="s">
         <v>23</v>
       </c>
@@ -2211,8 +2308,11 @@
       <c r="M21" s="8">
         <v>1415872</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="11" t="s">
         <v>24</v>
       </c>
@@ -2252,8 +2352,11 @@
       <c r="M22" s="8">
         <v>1787065</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="11" t="s">
         <v>25</v>
       </c>
@@ -2293,8 +2396,11 @@
       <c r="M23" s="8">
         <v>12671821</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="11" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2440,11 @@
       <c r="M24" s="8">
         <v>6732219</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="11" t="s">
         <v>27</v>
       </c>
@@ -2375,8 +2484,11 @@
       <c r="M25" s="8">
         <v>3155070</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="11" t="s">
         <v>28</v>
       </c>
@@ -2416,8 +2528,11 @@
       <c r="M26" s="8">
         <v>2913314</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="11" t="s">
         <v>29</v>
       </c>
@@ -2457,8 +2572,11 @@
       <c r="M27" s="8">
         <v>4467673</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="11" t="s">
         <v>30</v>
       </c>
@@ -2498,8 +2616,11 @@
       <c r="M28" s="8">
         <v>4648794</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="11" t="s">
         <v>31</v>
       </c>
@@ -2539,8 +2660,11 @@
       <c r="M29" s="8">
         <v>1344212</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="11" t="s">
         <v>32</v>
       </c>
@@ -2580,8 +2704,11 @@
       <c r="M30" s="8">
         <v>6045680</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="11" t="s">
         <v>33</v>
       </c>
@@ -2621,8 +2748,11 @@
       <c r="M31" s="8">
         <v>6892503</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="11" t="s">
         <v>34</v>
       </c>
@@ -2662,8 +2792,11 @@
       <c r="M32" s="8">
         <v>9986857</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="11" t="s">
         <v>35</v>
       </c>
@@ -2703,8 +2836,11 @@
       <c r="M33" s="8">
         <v>5639632</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="11" t="s">
         <v>36</v>
       </c>
@@ -2744,8 +2880,11 @@
       <c r="M34" s="8">
         <v>2976149</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="11" t="s">
         <v>37</v>
       </c>
@@ -2785,8 +2924,11 @@
       <c r="M35" s="8">
         <v>6137428</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="11" t="s">
         <v>38</v>
       </c>
@@ -2826,8 +2968,11 @@
       <c r="M36" s="8">
         <v>1068778</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="11" t="s">
         <v>39</v>
       </c>
@@ -2867,8 +3012,11 @@
       <c r="M37" s="8">
         <v>1934408</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="11" t="s">
         <v>40</v>
       </c>
@@ -2908,8 +3056,11 @@
       <c r="M38" s="8">
         <v>3080156</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="11" t="s">
         <v>41</v>
       </c>
@@ -2949,8 +3100,11 @@
       <c r="M39" s="8">
         <v>1359711</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="11" t="s">
         <v>42</v>
       </c>
@@ -2990,8 +3144,11 @@
       <c r="M40" s="8">
         <v>8882190</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N40" s="33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="11" t="s">
         <v>43</v>
       </c>
@@ -3031,8 +3188,11 @@
       <c r="M41" s="8">
         <v>2096829</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="11" t="s">
         <v>44</v>
       </c>
@@ -3072,8 +3232,11 @@
       <c r="M42" s="8">
         <v>19453561</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42" s="33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="11" t="s">
         <v>45</v>
       </c>
@@ -3113,8 +3276,11 @@
       <c r="M43" s="8">
         <v>10488084</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N43" s="33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="11" t="s">
         <v>46</v>
       </c>
@@ -3154,8 +3320,11 @@
       <c r="M44" s="8">
         <v>762062</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="11" t="s">
         <v>47</v>
       </c>
@@ -3195,8 +3364,11 @@
       <c r="M45" s="8">
         <v>11689100</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N45" s="33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="11" t="s">
         <v>48</v>
       </c>
@@ -3236,8 +3408,11 @@
       <c r="M46" s="8">
         <v>3956971</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N46" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="11" t="s">
         <v>49</v>
       </c>
@@ -3277,8 +3452,11 @@
       <c r="M47" s="8">
         <v>4217737</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N47" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="11" t="s">
         <v>50</v>
       </c>
@@ -3318,8 +3496,11 @@
       <c r="M48" s="8">
         <v>12801989</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N48" s="33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="11" t="s">
         <v>51</v>
       </c>
@@ -3359,8 +3540,11 @@
       <c r="M49" s="8">
         <v>1059361</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N49" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="11" t="s">
         <v>52</v>
       </c>
@@ -3400,8 +3584,11 @@
       <c r="M50" s="8">
         <v>5148714</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N50" s="33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="11" t="s">
         <v>53</v>
       </c>
@@ -3441,8 +3628,11 @@
       <c r="M51" s="8">
         <v>884659</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N51" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="11" t="s">
         <v>54</v>
       </c>
@@ -3482,8 +3672,11 @@
       <c r="M52" s="8">
         <v>6829174</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52" s="33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="11" t="s">
         <v>55</v>
       </c>
@@ -3523,8 +3716,11 @@
       <c r="M53" s="8">
         <v>28995881</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53" s="33">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="11" t="s">
         <v>56</v>
       </c>
@@ -3564,8 +3760,11 @@
       <c r="M54" s="8">
         <v>3205958</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="11" t="s">
         <v>57</v>
       </c>
@@ -3605,8 +3804,11 @@
       <c r="M55" s="8">
         <v>623989</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N55" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="11" t="s">
         <v>58</v>
       </c>
@@ -3646,8 +3848,11 @@
       <c r="M56" s="8">
         <v>8535519</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N56" s="33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="11" t="s">
         <v>59</v>
       </c>
@@ -3687,8 +3892,11 @@
       <c r="M57" s="8">
         <v>7614893</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N57" s="33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="11" t="s">
         <v>60</v>
       </c>
@@ -3728,8 +3936,11 @@
       <c r="M58" s="8">
         <v>1792147</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N58" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="11" t="s">
         <v>61</v>
       </c>
@@ -3769,8 +3980,11 @@
       <c r="M59" s="8">
         <v>5822434</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="11" t="s">
         <v>62</v>
       </c>
@@ -3810,8 +4024,11 @@
       <c r="M60" s="8">
         <v>578759</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="11"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -3826,7 +4043,7 @@
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14">
       <c r="A62" s="12" t="s">
         <v>5</v>
       </c>
@@ -3867,7 +4084,7 @@
         <v>3193694</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="36" customHeight="1">
       <c r="A63" s="30" t="s">
         <v>63</v>
       </c>
@@ -3884,7 +4101,7 @@
       <c r="L63" s="31"/>
       <c r="M63" s="32"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14">
       <c r="A64" s="13" t="s">
         <v>64</v>
       </c>
@@ -3901,7 +4118,7 @@
       <c r="L64" s="14"/>
       <c r="M64" s="15"/>
     </row>
-    <row r="65" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="12.75" customHeight="1">
       <c r="A65" s="16" t="s">
         <v>65</v>
       </c>
@@ -3918,7 +4135,7 @@
       <c r="L65" s="17"/>
       <c r="M65" s="18"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="A66" s="16" t="s">
         <v>66</v>
       </c>
@@ -3935,7 +4152,7 @@
       <c r="L66" s="17"/>
       <c r="M66" s="18"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13">
       <c r="A67" s="19" t="s">
         <v>67</v>
       </c>
@@ -3968,8 +4185,5 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="13" max="1048575" man="1"/>
-  </colBreaks>
 </worksheet>
 </file>